--- a/data/long_razon/P23_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_6-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 32,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 89,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 34,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 34,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 16,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 43,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 25,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 17,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 5,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 49,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 18,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 155,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 75,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 76,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 146,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 67,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 67,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 12,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 10,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 32,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 22,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_6-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1202311868693201</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2593320456905421</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4137552583914288</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.04728175372873773</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.00299145522473208</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2445161034360925</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.03678088288843295</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1085946698898597</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3120295351039552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.3957891165386363</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1206554949611613</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.05716514242584017</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1896581087644459</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.220948077885661</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.08663543752107901</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2232138999775367</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.107170934024325</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.005074620302002644</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3100613829225126</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.948701808482365</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.164935204330265</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3842212495398087</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2771159673743417</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.7068772563379255</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2639235010151273</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4203185268623226</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6909260535234798</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1315186919575411</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2232834715350497</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.364310078644353</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2304792197110556</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1222290034972452</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.3705398116925963</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1853349895152173</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.07126275923738892</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3673808155297538</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4616821922110794</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4698268947138186</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.08861936352262169</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4468779849804105</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1455603207547963</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.0480434273106888</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3675580536456871</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.275379550860869</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.07034200185799004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.2208846702841054</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1325793179235561</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.063519091455565</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06297976140388406</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6076750017764412</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8969049567939682</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.04017949593762816</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1747737852895169</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.8048134164127201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.02814998555617535</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1979685976125715</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.109090855189412</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.0007499219090339302</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2046827648774912</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5023698020928571</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.01435873282025628</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.007164297720221174</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2409845912424654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5236957709463673</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.6788516445661631</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5573272078333943</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.455555528139432</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.333982295958146</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2619679313026931</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3982757380388362</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.405258824585845</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2957314812518538</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.601060026903302</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6705541177454838</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.967085024322159</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.030033068577662</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.130184395975737</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.367528102236184</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6993956042798416</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6656531633170936</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.809378556960364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1060310860258034</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.03207330296187306</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3323562002274656</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.08654807139494107</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.06795107649103141</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3156938722292035</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.09598284697507541</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.01916154717723382</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3236909672615337</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3151302890331857</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2442856732011524</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.01513895599111793</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2509040070556444</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.110967191944578</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.07364853668318125</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2269821715460851</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1299197976118898</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.115171279298863</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1730268217592706</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.296231545050954</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8949991563858611</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.109373100683942</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2877990830685797</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.62804527344564</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.07792121523309613</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1919714602916129</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6045902143588724</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
